--- a/DB KARRILLO.xlsx
+++ b/DB KARRILLO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\www\karrillo\karrillo_dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AADFD709-1B5D-46D6-842E-F19554016300}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0437118-35BB-4CA9-BE78-BB40B59B9B24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B8F7C58E-F0A3-4CC0-86BA-63D14F556357}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B8F7C58E-F0A3-4CC0-86BA-63D14F556357}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -168,7 +168,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,6 +178,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,15 +295,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -307,12 +310,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -630,7 +636,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,22 +651,22 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
-      <c r="I2" s="11" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="I2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="13"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -706,13 +712,13 @@
         <v>9</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="15"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -756,7 +762,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="8" t="s">
         <v>29</v>
       </c>
       <c r="J6" s="3" t="s">
@@ -781,14 +787,14 @@
         <v>7</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="15"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
       <c r="E8" s="5" t="s">
         <v>8</v>
       </c>
@@ -796,182 +802,182 @@
         <v>7</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="19"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="E11" s="11" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="E11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
-      <c r="I11" s="11" t="s">
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="I11" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="13"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="15" t="s">
+      <c r="F12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="15" t="s">
+      <c r="J12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="E13" s="14" t="s">
+      <c r="B13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="E13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="15" t="s">
+      <c r="F13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K13" s="15"/>
+      <c r="J13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="E14" s="14" t="s">
+      <c r="B14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="E14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="15" t="s">
+      <c r="F14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="15"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="E15" s="14" t="s">
+      <c r="B15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="E15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="15"/>
+      <c r="F15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="9"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="15"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="15"/>
+      <c r="B16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="9"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="19"/>
+      <c r="B17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="13"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="E20" s="11" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="E20" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="15" t="s">
+      <c r="B21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="9" t="s">
         <v>2</v>
       </c>
       <c r="J21" t="s">
@@ -982,22 +988,22 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="15" t="s">
+      <c r="B22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="15"/>
+      <c r="F22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="9"/>
       <c r="J22" t="s">
         <v>37</v>
       </c>
@@ -1006,34 +1012,34 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="15" t="s">
+      <c r="B23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="15"/>
+      <c r="F23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="15"/>
-      <c r="E24" s="14" t="s">
+      <c r="A24" s="8"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="9"/>
+      <c r="E24" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="15"/>
+      <c r="F24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="9"/>
       <c r="J24" t="s">
         <v>38</v>
       </c>
@@ -1042,51 +1048,51 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="15"/>
-      <c r="E25" s="14" t="s">
+      <c r="A25" s="8"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="9"/>
+      <c r="E25" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="15"/>
+      <c r="F25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="15"/>
-      <c r="E26" s="14" t="s">
+      <c r="A26" s="8"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="9"/>
+      <c r="E26" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="15"/>
+      <c r="F26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
-      <c r="E27" s="17" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="E27" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="19"/>
+      <c r="F27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I2:K2"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="E11:G11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
